--- a/src/users.xlsx
+++ b/src/users.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,6 +31,26 @@
   </si>
   <si>
     <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wyh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wyh123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yukari</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unknow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unknow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -397,6 +417,34 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
